--- a/Detalhes_Use_Cases.xlsx
+++ b/Detalhes_Use_Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId1"/>
@@ -24,13 +24,24 @@
     <sheet name="Visualizar Ranking Global" sheetId="15" r:id="rId10"/>
     <sheet name="Alterar Password" sheetId="16" r:id="rId11"/>
     <sheet name="Terminar Sessão" sheetId="17" r:id="rId12"/>
+    <sheet name="Visualização de Historico" sheetId="18" r:id="rId13"/>
+    <sheet name="Criar Lobby" sheetId="19" r:id="rId14"/>
+    <sheet name="Inscrição em Campeonato" sheetId="21" r:id="rId15"/>
+    <sheet name="Começar Campeonato" sheetId="22" r:id="rId16"/>
+    <sheet name="Jogar Corrida" sheetId="23" r:id="rId17"/>
+    <sheet name="Configuração de Carro " sheetId="25" r:id="rId18"/>
+    <sheet name="Criar Conta de Utilizador" sheetId="26" r:id="rId19"/>
+    <sheet name="Visualizar tabela do Lobby" sheetId="27" r:id="rId20"/>
+    <sheet name="Terminar Campeonato" sheetId="28" r:id="rId21"/>
+    <sheet name="Autenticação" sheetId="29" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="256">
   <si>
     <t>1. Dividir os fluxos 
     em sequências de transacções</t>
@@ -765,6 +776,866 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> do utilizador</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualização de Histórico</t>
+  </si>
+  <si>
+    <t>Ator decide visualizar o seu histórico de participações</t>
+  </si>
+  <si>
+    <t>Ator deve estar autenticado como jogador, não devendo estar a jogar nenhum campeonato</t>
+  </si>
+  <si>
+    <t>Ator fornece intenção de visualizar o seu histórico</t>
+  </si>
+  <si>
+    <t>Sistema apresenta o histórico do utilizador: sessões e respetivo campeonato, corridas, posições, tempo decorrido e ainda qual o piloto e carro utilizados</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criar </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lobby</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilizador cria </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>lobby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> para jogar campeonato</t>
+    </r>
+  </si>
+  <si>
+    <t>Jogar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema terá fornecido o </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ranking</t>
+    </r>
+  </si>
+  <si>
+    <t>Sistema apresenta lista de campeonatos disponíveis</t>
+  </si>
+  <si>
+    <t>Jogador escolhe campeonato</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema terá criado </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lobby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relativo a um campeonato aberto para inscrições</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema cria </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lobby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para o campeonato</t>
+    </r>
+  </si>
+  <si>
+    <t>Sistema apresenta lista de carros disponíveis</t>
+  </si>
+  <si>
+    <t>Jogador escolhe carro</t>
+  </si>
+  <si>
+    <t>Sistema apresenta lista de pilotos disponíveis</t>
+  </si>
+  <si>
+    <t>Jogador escolhe piloto</t>
+  </si>
+  <si>
+    <t>Sistema valida inscrição do jogador e adiciona o mesmo ao campeonato</t>
+  </si>
+  <si>
+    <t>Inscrição em Campeonato</t>
+  </si>
+  <si>
+    <t>Jogador inscreve-se num campeonato</t>
+  </si>
+  <si>
+    <t>Sistema adiciona jogador ao campeonato com carro e piloto escolhidos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema deve ter um </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lobby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de campeonato aberto e o não se pode encontrar cheio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Piloto já foi escolhido por um jogador no </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lobby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>](Passo 5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema verifica que um jogador do mesmo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lobby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> já escolheu o mesmo piloto</t>
+    </r>
+  </si>
+  <si>
+    <t>Começar Campeonato</t>
+  </si>
+  <si>
+    <t>Jogador começa campeonato</t>
+  </si>
+  <si>
+    <t>Sistema começa campeonato</t>
+  </si>
+  <si>
+    <t>Jogador decide começar campeonato</t>
+  </si>
+  <si>
+    <r>
+      <t>Sistema deve ter um</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lobby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de campeonato criado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema inicia o campeonato, fechando o </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lobby</t>
+    </r>
+  </si>
+  <si>
+    <t>Jogar Corrida</t>
+  </si>
+  <si>
+    <t>Jogador joga corrida</t>
+  </si>
+  <si>
+    <t>Corrida</t>
+  </si>
+  <si>
+    <t>Sistema tem um campeonato a correr</t>
+  </si>
+  <si>
+    <t>Jogador decide começar corrida</t>
+  </si>
+  <si>
+    <t>Sistema calcula circuito da corrida e situação meteorológica</t>
+  </si>
+  <si>
+    <t>&lt;&lt;include&gt;&gt; Configuração de Carro para Corrida</t>
+  </si>
+  <si>
+    <t>No fim da corrida, sistema apresenta tabela classificativa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema terá simulado corrida atualizando tabela classificativa do </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lobby</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quando todos os jogadores do </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lobby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fizeram a sua configuração, sistema começa corrida</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema adiciona as pontuações de cada jogador na corrida à sua pontuação no </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lobby</t>
+    </r>
+  </si>
+  <si>
+    <t>[Não existe mais nenhum circuito para correr](Passo 2)</t>
+  </si>
+  <si>
+    <t>Sistema verifica que não existem mais nenhuns circuitos restantes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Sistema regressa ao </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lobby</t>
+    </r>
+  </si>
+  <si>
+    <t>Configuração de Carro para Corrida</t>
+  </si>
+  <si>
+    <t>Ator decide efetuar a configuração do carro que vai usar</t>
+  </si>
+  <si>
+    <t>Jogar. Configurar Corridas</t>
+  </si>
+  <si>
+    <t>Campeonato iniciado, com corrida escolhida</t>
+  </si>
+  <si>
+    <t>Ator pronto a iniciar corrida, com o carro devidamente configurado a seu dispor</t>
+  </si>
+  <si>
+    <t>Sistema verifica que ator tem carro C1 ou C2</t>
+  </si>
+  <si>
+    <t>Ator diz querer alterar afinação</t>
+  </si>
+  <si>
+    <t>Ator indica nova afinação</t>
+  </si>
+  <si>
+    <t>Sistema fornece os possíveis modos do motor</t>
+  </si>
+  <si>
+    <t>Ator indica um modo de motor</t>
+  </si>
+  <si>
+    <t>Sistema fornece tipos de pneus possíveis</t>
+  </si>
+  <si>
+    <t>Ator indica tipo de pneus</t>
+  </si>
+  <si>
+    <t>Sistema regista configuração do veículo</t>
+  </si>
+  <si>
+    <t>[Ator não deseja alterar afinação](Passo 2)</t>
+  </si>
+  <si>
+    <t>Ator diz não querer alterar afinação</t>
+  </si>
+  <si>
+    <t>Regressa a 4</t>
+  </si>
+  <si>
+    <t>[Ator não possui carro C1 ou C2](Passo 1)</t>
+  </si>
+  <si>
+    <t>Sistema verifica que Ator não possui carro C1 ou C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Regressa a 4</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Criar Conta de Utilizador</t>
+  </si>
+  <si>
+    <t>Utilizador cria nova conta</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Sistema terá criado nova conta para jogador</t>
+  </si>
+  <si>
+    <t>Utilizador indica o tipo de conta que quer</t>
+  </si>
+  <si>
+    <t>Sistema adiciona o utilizador</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilizador fornece </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema valida </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilizador fornece </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema valida </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sistema indica tipos de conta disponíveis (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Premium </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ou Normal)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> já existente](Passo 2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema verifica que </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> já existe, informando o jogador</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inválida(p.e vazia)](Passo 4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema verifica que </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é inválida, informando o jogador</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visualizar tabela classificativa do </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lobby</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Jogador quer visualizar a tabela classificativa do</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lobby</t>
+    </r>
+  </si>
+  <si>
+    <t>Sistema deve possuir um campeonato a correr</t>
+  </si>
+  <si>
+    <t>Sistema apresenta tabela classificativa</t>
+  </si>
+  <si>
+    <t>Jogador decide visualizar tabela classificativa</t>
+  </si>
+  <si>
+    <t>Sistema apresenta tabela, constituída por vários jogadores (username, posição e pontuação)</t>
+  </si>
+  <si>
+    <t>Terminar Campeonato</t>
+  </si>
+  <si>
+    <t>Jogador decide terminar Campeonato</t>
+  </si>
+  <si>
+    <t>Jogador decide terminar campeonato</t>
+  </si>
+  <si>
+    <t>Sistema adiciona a participação no campeonato ao histórico dos jogadores autenticados</t>
+  </si>
+  <si>
+    <t>Sistema termina campeonato</t>
+  </si>
+  <si>
+    <t>[Ainda existem circuitos restantes para jogar](Passo 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sistema verifica que ainda existem circuitos restantes</t>
+  </si>
+  <si>
+    <t>Sistema avisa jogadores que não irão receber a pontuação do campeonato</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sistema apresenta tabela classificativa, constituída por vários jogadores (username, posição)</t>
+  </si>
+  <si>
+    <t>Sistema termina Campeonato</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sistema apresenta tabela classificativa, constituída por vários jogadores (username, posição e pontuação)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema termina campeonato, atualizando pontuação do </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ranking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> global para os jogadores autenticados</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistema adiciona pontuação do campeonato de cada jogador à pontuação do </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ranking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>global dos jogadores autenticados</t>
+    </r>
+  </si>
+  <si>
+    <t>Autenticação</t>
+  </si>
+  <si>
+    <t>Ator autentica-se no sistema</t>
+  </si>
+  <si>
+    <t>todos</t>
+  </si>
+  <si>
+    <t>Utilizador autenticado no sistema</t>
+  </si>
+  <si>
+    <t>Sistema autentica utilizador</t>
+  </si>
+  <si>
+    <t>[Dados fornecidos são inválidos (Conta não existe)](Passo 2)</t>
+  </si>
+  <si>
+    <t>Sistema verifica que dados inseridos são inválidos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilizador indica </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
     </r>
   </si>
 </sst>
@@ -855,7 +1726,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -887,11 +1758,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -913,24 +1793,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -965,6 +1827,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,16 +2089,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1222,10 +2108,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -1233,55 +2119,55 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1461,16 +2347,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1479,75 +2365,75 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1564,7 +2450,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="13" t="s">
         <v>128</v>
       </c>
       <c r="E10" s="8"/>
@@ -1709,16 +2595,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1727,83 +2613,83 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1813,7 +2699,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="24" t="s">
         <v>140</v>
       </c>
       <c r="E10" s="8"/>
@@ -1825,7 +2711,7 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E11" s="8"/>
@@ -1837,7 +2723,7 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="16" t="s">
         <v>135</v>
       </c>
       <c r="E12" s="8"/>
@@ -1848,7 +2734,7 @@
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1861,7 +2747,7 @@
       <c r="C14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>136</v>
       </c>
       <c r="E14" s="7"/>
@@ -1873,7 +2759,7 @@
       <c r="C15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="16" t="s">
         <v>137</v>
       </c>
       <c r="E15" s="8"/>
@@ -1883,7 +2769,7 @@
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1896,7 +2782,7 @@
       <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="16" t="s">
         <v>138</v>
       </c>
       <c r="E17" s="7"/>
@@ -1908,7 +2794,7 @@
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="16" t="s">
         <v>139</v>
       </c>
       <c r="E18" s="8"/>
@@ -1966,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1986,16 +2872,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2004,83 +2890,83 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2090,7 +2976,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="18" t="s">
         <v>145</v>
       </c>
       <c r="E10" s="8"/>
@@ -2209,12 +3095,1949 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="165" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:E8"/>
+    <mergeCell ref="F1:F8"/>
+    <mergeCell ref="G1:G8"/>
+    <mergeCell ref="H1:H8"/>
+    <mergeCell ref="D11:D12"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+      <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="94" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:E8"/>
+    <mergeCell ref="F1:F8"/>
+    <mergeCell ref="G1:G8"/>
+    <mergeCell ref="H1:H8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+      <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="21"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="21"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:E8"/>
+    <mergeCell ref="F1:F8"/>
+    <mergeCell ref="G1:G8"/>
+    <mergeCell ref="H1:H8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19">
+      <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:E8"/>
+    <mergeCell ref="F1:F8"/>
+    <mergeCell ref="G1:G8"/>
+    <mergeCell ref="H1:H8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+      <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="93.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:E8"/>
+    <mergeCell ref="F1:F8"/>
+    <mergeCell ref="G1:G8"/>
+    <mergeCell ref="H1:H8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="82.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="21"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:E8"/>
+    <mergeCell ref="F1:F8"/>
+    <mergeCell ref="G1:G8"/>
+    <mergeCell ref="H1:H8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B20">
+      <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="21"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="21"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:E8"/>
+    <mergeCell ref="F1:F8"/>
+    <mergeCell ref="G1:G8"/>
+    <mergeCell ref="H1:H8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B19">
+      <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2233,16 +5056,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2251,85 +5074,85 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2339,7 +5162,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="8"/>
@@ -2351,7 +5174,7 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="8"/>
@@ -2363,7 +5186,7 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="22" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="8"/>
@@ -2376,7 +5199,7 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="7"/>
@@ -2388,7 +5211,7 @@
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="24" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="7"/>
@@ -2397,28 +5220,28 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="27"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="27"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="27"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="27"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -2432,7 +5255,7 @@
       <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2440,7 +5263,7 @@
       <c r="C20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2448,7 +5271,7 @@
       <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2481,6 +5304,822 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B20 B25">
+      <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:E8"/>
+    <mergeCell ref="F1:F8"/>
+    <mergeCell ref="G1:G8"/>
+    <mergeCell ref="H1:H8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+      <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="B6" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="126" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="21"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="21"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="21"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:E8"/>
+    <mergeCell ref="F1:F8"/>
+    <mergeCell ref="G1:G8"/>
+    <mergeCell ref="H1:H8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B19">
+      <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="21"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:E8"/>
+    <mergeCell ref="F1:F8"/>
+    <mergeCell ref="G1:G8"/>
+    <mergeCell ref="H1:H8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B15">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2513,16 +6152,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2531,85 +6170,85 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2619,7 +6258,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="8"/>
@@ -2631,7 +6270,7 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="18" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="8"/>
@@ -2643,7 +6282,7 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="8"/>
@@ -2656,7 +6295,7 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="7"/>
@@ -2668,7 +6307,7 @@
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="7"/>
@@ -2680,7 +6319,7 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="8"/>
@@ -2692,7 +6331,7 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="7"/>
@@ -2704,7 +6343,7 @@
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="7"/>
@@ -2736,7 +6375,7 @@
       <c r="C22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2744,7 +6383,7 @@
       <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2752,7 +6391,7 @@
       <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2808,16 +6447,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2826,85 +6465,85 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2914,7 +6553,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="8"/>
@@ -2926,7 +6565,7 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="16" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="8"/>
@@ -2938,7 +6577,7 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="16" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="8"/>
@@ -2951,7 +6590,7 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="16" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="7"/>
@@ -2963,7 +6602,7 @@
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="7"/>
@@ -2972,28 +6611,28 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="27"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="27"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="27"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="27"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -3007,7 +6646,7 @@
       <c r="C19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3015,7 +6654,7 @@
       <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3023,12 +6662,12 @@
       <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="27"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
@@ -3037,7 +6676,7 @@
       <c r="C23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3045,7 +6684,7 @@
       <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3053,7 +6692,7 @@
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3104,16 +6743,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3122,85 +6761,85 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3210,7 +6849,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="16" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="8"/>
@@ -3222,7 +6861,7 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="16" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="8"/>
@@ -3234,7 +6873,7 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="8"/>
@@ -3247,7 +6886,7 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="7"/>
@@ -3259,7 +6898,7 @@
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="7"/>
@@ -3271,7 +6910,7 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="8"/>
@@ -3283,7 +6922,7 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="7"/>
@@ -3295,7 +6934,7 @@
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="18" t="s">
         <v>86</v>
       </c>
       <c r="E17" s="7"/>
@@ -3307,7 +6946,7 @@
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -3316,7 +6955,7 @@
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="5"/>
-      <c r="D19" s="21"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
@@ -3325,7 +6964,7 @@
       <c r="C20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3333,7 +6972,7 @@
       <c r="C21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3341,7 +6980,7 @@
       <c r="C22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3349,12 +6988,12 @@
       <c r="C23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="20"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
@@ -3363,7 +7002,7 @@
       <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="16" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3371,7 +7010,7 @@
       <c r="C26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3379,7 +7018,7 @@
       <c r="C27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3424,16 +7063,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3442,85 +7081,85 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3530,7 +7169,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="16" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="8"/>
@@ -3542,7 +7181,7 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="16" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="8"/>
@@ -3554,7 +7193,7 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="8"/>
@@ -3567,7 +7206,7 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="7"/>
@@ -3579,7 +7218,7 @@
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="7"/>
@@ -3591,7 +7230,7 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="18" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="8"/>
@@ -3603,7 +7242,7 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="7"/>
@@ -3615,7 +7254,7 @@
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E17" s="7"/>
@@ -3624,7 +7263,7 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="27"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -3638,7 +7277,7 @@
       <c r="C19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="16" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3646,7 +7285,7 @@
       <c r="C20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3654,7 +7293,7 @@
       <c r="C21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3662,7 +7301,7 @@
       <c r="C22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3670,10 +7309,10 @@
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="20"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
@@ -3682,7 +7321,7 @@
       <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="16" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3690,7 +7329,7 @@
       <c r="C26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3698,7 +7337,7 @@
       <c r="C27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3743,16 +7382,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3761,85 +7400,85 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3849,7 +7488,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="16" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="8"/>
@@ -3861,7 +7500,7 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="16" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="8"/>
@@ -3873,7 +7512,7 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="16" t="s">
         <v>109</v>
       </c>
       <c r="E12" s="8"/>
@@ -3886,7 +7525,7 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E13" s="7"/>
@@ -3898,7 +7537,7 @@
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="7"/>
@@ -3910,7 +7549,7 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="8"/>
@@ -3922,7 +7561,7 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="7"/>
@@ -3934,7 +7573,7 @@
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E17" s="7"/>
@@ -3946,7 +7585,7 @@
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -3960,7 +7599,7 @@
       <c r="C19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3968,7 +7607,7 @@
       <c r="C20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3976,7 +7615,7 @@
       <c r="C21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3984,12 +7623,12 @@
       <c r="C22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="20"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
@@ -3998,7 +7637,7 @@
       <c r="C24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="16" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4006,7 +7645,7 @@
       <c r="C25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4014,7 +7653,7 @@
       <c r="C26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4062,16 +7701,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4080,85 +7719,85 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4168,7 +7807,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="16" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="8"/>
@@ -4180,7 +7819,7 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="16" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="8"/>
@@ -4192,7 +7831,7 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="18" t="s">
         <v>117</v>
       </c>
       <c r="E12" s="8"/>
@@ -4205,7 +7844,7 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="7"/>
@@ -4217,7 +7856,7 @@
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="7"/>
@@ -4229,7 +7868,7 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="8"/>
@@ -4241,7 +7880,7 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E16" s="7"/>
@@ -4250,14 +7889,14 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="27"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="27"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -4271,7 +7910,7 @@
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="16" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4279,7 +7918,7 @@
       <c r="C20" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4287,7 +7926,7 @@
       <c r="C21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4351,16 +7990,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4369,78 +8008,78 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Detalhes_Use_Cases.xlsx
+++ b/Detalhes_Use_Cases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geral\Desktop\DSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturleite/dev/DSS/DSS_TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D001D6-47F8-7D49-822E-5E06EBC60AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12920" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId1"/>
@@ -36,12 +37,11 @@
     <sheet name="Autenticação" sheetId="29" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="333">
   <si>
     <t>1. Dividir os fluxos 
     em sequências de transacções</t>
@@ -1638,11 +1638,242 @@
       <t>password</t>
     </r>
   </si>
+  <si>
+    <t>SubCampeonatos</t>
+  </si>
+  <si>
+    <t>SubCircuitos</t>
+  </si>
+  <si>
+    <t>SubPilotos</t>
+  </si>
+  <si>
+    <t>Adicionar Piloto</t>
+  </si>
+  <si>
+    <t>Procura de Categorias</t>
+  </si>
+  <si>
+    <t>getCategorias(): List&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>SubCarros</t>
+  </si>
+  <si>
+    <t>Procura de Campeonatos</t>
+  </si>
+  <si>
+    <t>getCampeonatos(): List&lt;Campeonato</t>
+  </si>
+  <si>
+    <t>Procura de Rankings Globais</t>
+  </si>
+  <si>
+    <t>SubRanking</t>
+  </si>
+  <si>
+    <t>SubLobbies</t>
+  </si>
+  <si>
+    <t>getTabelaClassificativa(): Tabela</t>
+  </si>
+  <si>
+    <t>Atualizar Ranking Global</t>
+  </si>
+  <si>
+    <t>SubRankingGlobal</t>
+  </si>
+  <si>
+    <t>terminaCampeonato()</t>
+  </si>
+  <si>
+    <t>Procura de Tabela classificativa de campeonato</t>
+  </si>
+  <si>
+    <t>Atualizar Histórico dos Jogadores</t>
+  </si>
+  <si>
+    <t>SubUsers</t>
+  </si>
+  <si>
+    <t>Autenticar utilizador</t>
+  </si>
+  <si>
+    <t>autenticaUser(username: String, password: String): boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Procura de Circuitos</t>
+  </si>
+  <si>
+    <t>getCircuitos(): List&lt;Circuito&gt;</t>
+  </si>
+  <si>
+    <t>Registar Campeonato</t>
+  </si>
+  <si>
+    <t>Atualizar password</t>
+  </si>
+  <si>
+    <t>setPassword(username: String, password: String): boolean</t>
+  </si>
+  <si>
+    <t>Realizar log out de utilizador</t>
+  </si>
+  <si>
+    <t>logOut(username: String)</t>
+  </si>
+  <si>
+    <t>Procura de histórico de participações</t>
+  </si>
+  <si>
+    <t>getHistoricoParticipacoes(username: String): List&lt;Participação&gt;</t>
+  </si>
+  <si>
+    <t>Procura de Campeonatos disponíveis</t>
+  </si>
+  <si>
+    <t>getCampeonatos(): List&lt;Campeonato&gt;</t>
+  </si>
+  <si>
+    <t>Criação de Lobby de Campeonato</t>
+  </si>
+  <si>
+    <t>criaLobby(codCampeonato: String): Lobby</t>
+  </si>
+  <si>
+    <t>Procura de Carros Disponíveis</t>
+  </si>
+  <si>
+    <t>getCarros(): List&lt;Carro&gt;</t>
+  </si>
+  <si>
+    <t>Procura de Pilotos Disponíveis</t>
+  </si>
+  <si>
+    <t>getPilotos(): List&lt;Piloto&gt;</t>
+  </si>
+  <si>
+    <t>SubPiloto</t>
+  </si>
+  <si>
+    <t>Registo de inscrição no lobby</t>
+  </si>
+  <si>
+    <t>inscreveJogador(codCarro: String, codPiloto: String): boolean</t>
+  </si>
+  <si>
+    <t>Começar um campeonato</t>
+  </si>
+  <si>
+    <t>começaCampeonato()</t>
+  </si>
+  <si>
+    <t>Procura de tipos de Motor</t>
+  </si>
+  <si>
+    <t>Procura de tipos de pneus</t>
+  </si>
+  <si>
+    <t>getModosMotor(): List&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>getTipoPneus(): List&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>Registrar configuração de veículo de jogador sem alteração de afinação</t>
+  </si>
+  <si>
+    <t>registaConfiguração(modoMotor: ModoMotor, modoPneu: Pneu)</t>
+  </si>
+  <si>
+    <t>Registrar configuração de veículo de jogador com alteração de afinação</t>
+  </si>
+  <si>
+    <t>registaConfiguração(modoMotor: ModoMotor, modoPneu: Pneu, afinação: float)</t>
+  </si>
+  <si>
+    <t>Procura de Tipos de Conta</t>
+  </si>
+  <si>
+    <t>getTiposConta(): List&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>Registrar nova conta de jogador</t>
+  </si>
+  <si>
+    <t>registaJogador(username: String, password: String, tipoConta: TipoConta): boolean</t>
+  </si>
+  <si>
+    <t>addCampeonato(campeonato: String, circuitos: List&lt;String&gt;): boolean</t>
+  </si>
+  <si>
+    <t>Registo de novo Circuito</t>
+  </si>
+  <si>
+    <t>addPiloto(piloto: String, cts: float, sva: float): boolean</t>
+  </si>
+  <si>
+    <t>Registar Carro não híbrido</t>
+  </si>
+  <si>
+    <t>Registar Carro híbrido</t>
+  </si>
+  <si>
+    <t>addCarro(marca: String, modelo: String, cilindrada: int, potência: float, pac: float): boolean</t>
+  </si>
+  <si>
+    <t>addCarro(marca: String, modelo: String, cilindrada: int, potência: float, pac: float, potencia_hibrido: float): boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Procura de Categorias</t>
+  </si>
+  <si>
+    <t>Apresentação de tabela classificativa</t>
+  </si>
+  <si>
+    <t>SubLobby</t>
+  </si>
+  <si>
+    <t>Calcular próximo circuito para Corrida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getProximoCircuito(codCampeonato: String, int indiceCorrida): Circuito </t>
+  </si>
+  <si>
+    <t>SubCorridas</t>
+  </si>
+  <si>
+    <t>Adicionar Configuração Jogador para Corrida</t>
+  </si>
+  <si>
+    <t>addConfiguração(username: String, conf: Configuração)</t>
+  </si>
+  <si>
+    <t>Começar Corrida</t>
+  </si>
+  <si>
+    <t>startRace(circuito: Circuito, situacao: Meteorologia)</t>
+  </si>
+  <si>
+    <t>addCircuito(codCircuito: String, distancia: float, secções: List&lt;Secção, voltas: int): boolean</t>
+  </si>
+  <si>
+    <t>getRankingGlobal(): Tabela</t>
+  </si>
+  <si>
+    <t>atualizaRankingGlobal(username: String, pontuação: int)</t>
+  </si>
+  <si>
+    <t>addParticipacao(username: String, campeonato: String, tabelaClassificativa: Tabela)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1828,6 +2059,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
@@ -1848,9 +2082,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2066,108 +2297,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2314,7 +2545,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2324,43 +2555,43 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="26.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2368,12 +2599,12 @@
       <c r="D2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -2381,59 +2612,59 @@
       <c r="D3" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2454,9 +2685,15 @@
         <v>128</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
@@ -2562,7 +2799,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2572,43 +2809,43 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2616,12 +2853,12 @@
       <c r="D2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -2629,28 +2866,28 @@
       <c r="D3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="21"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -2659,10 +2896,10 @@
       <c r="D6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -2671,18 +2908,18 @@
       <c r="D7" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2715,9 +2952,15 @@
         <v>134</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
@@ -2839,7 +3082,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2849,43 +3092,43 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="21.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2893,12 +3136,12 @@
       <c r="D2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -2906,28 +3149,28 @@
       <c r="D3" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="21"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -2936,10 +3179,10 @@
       <c r="D6" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -2948,18 +3191,18 @@
       <c r="D7" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2980,9 +3223,15 @@
         <v>145</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
@@ -3086,7 +3335,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3096,43 +3345,43 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="165" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3140,12 +3389,12 @@
       <c r="D2" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3153,28 +3402,28 @@
       <c r="D3" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="21"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -3183,10 +3432,10 @@
       <c r="D6" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -3195,18 +3444,18 @@
       <c r="D7" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3235,17 +3484,23 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>150</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -3340,7 +3595,7 @@
     <mergeCell ref="D11:D12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3350,43 +3605,43 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="94" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3394,12 +3649,12 @@
       <c r="D2" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3407,30 +3662,30 @@
       <c r="D3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -3439,10 +3694,10 @@
       <c r="D6" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -3451,18 +3706,18 @@
       <c r="D7" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3483,9 +3738,15 @@
         <v>155</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
@@ -3495,9 +3756,15 @@
         <v>156</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
@@ -3598,8 +3865,8 @@
     <mergeCell ref="G1:G8"/>
     <mergeCell ref="H1:H8"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3609,43 +3876,43 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3653,12 +3920,12 @@
       <c r="D2" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3666,10 +3933,10 @@
       <c r="D3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -3678,18 +3945,18 @@
       <c r="D4" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -3698,10 +3965,10 @@
       <c r="D6" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -3710,18 +3977,18 @@
       <c r="D7" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3742,9 +4009,15 @@
         <v>159</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
@@ -3766,9 +4039,15 @@
         <v>161</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3791,9 +4070,15 @@
         <v>163</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="21"/>
@@ -3879,7 +4164,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B19" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3889,43 +4174,43 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="21.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3933,12 +4218,12 @@
       <c r="D2" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3946,10 +4231,10 @@
       <c r="D3" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -3958,18 +4243,18 @@
       <c r="D4" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -3978,10 +4263,10 @@
       <c r="D6" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -3990,18 +4275,18 @@
       <c r="D7" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4022,9 +4307,15 @@
         <v>173</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
@@ -4134,7 +4425,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4144,43 +4435,43 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="93.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="93.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4188,12 +4479,12 @@
       <c r="D2" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -4201,10 +4492,10 @@
       <c r="D3" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -4213,18 +4504,18 @@
       <c r="D4" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -4233,10 +4524,10 @@
       <c r="D6" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -4245,18 +4536,18 @@
       <c r="D7" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4289,9 +4580,15 @@
         <v>181</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
@@ -4303,7 +4600,6 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4314,9 +4610,15 @@
         <v>185</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
@@ -4327,7 +4629,6 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4338,9 +4639,15 @@
         <v>186</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="7"/>
@@ -4416,8 +4723,8 @@
     <mergeCell ref="G1:G8"/>
     <mergeCell ref="H1:H8"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4427,43 +4734,43 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="82.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4471,12 +4778,12 @@
       <c r="D2" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -4484,10 +4791,10 @@
       <c r="D3" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -4496,18 +4803,18 @@
       <c r="D4" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -4516,10 +4823,10 @@
       <c r="D6" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -4528,18 +4835,18 @@
       <c r="D7" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4561,7 +4868,6 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4572,9 +4878,15 @@
         <v>196</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
@@ -4584,9 +4896,15 @@
         <v>197</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4633,9 +4951,15 @@
         <v>201</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
@@ -4645,9 +4969,15 @@
         <v>202</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="21"/>
@@ -4728,7 +5058,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B20" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4738,43 +5068,43 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="66.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4782,12 +5112,12 @@
       <c r="D2" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -4795,28 +5125,28 @@
       <c r="D3" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="21"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -4825,10 +5155,10 @@
       <c r="D6" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -4837,18 +5167,18 @@
       <c r="D7" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4881,9 +5211,15 @@
         <v>218</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
@@ -4942,9 +5278,15 @@
         <v>216</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="21"/>
@@ -5023,7 +5365,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B19" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5033,43 +5375,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E8"/>
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="44.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5077,12 +5420,12 @@
       <c r="D2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -5090,10 +5433,10 @@
       <c r="D3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -5102,18 +5445,18 @@
       <c r="D4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -5122,10 +5465,10 @@
       <c r="D6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -5134,18 +5477,18 @@
       <c r="D7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5190,9 +5533,15 @@
         <v>50</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5215,9 +5564,15 @@
         <v>52</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="21"/>
@@ -5303,7 +5658,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B20 B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B20 B25" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5313,43 +5668,43 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5357,12 +5712,12 @@
       <c r="D2" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -5370,62 +5725,62 @@
       <c r="D3" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5438,7 +5793,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -5450,7 +5805,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -5458,9 +5813,15 @@
         <v>231</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
@@ -5468,7 +5829,6 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5556,7 +5916,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5566,43 +5926,43 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D27"/>
+    <sheetView topLeftCell="D3" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="126" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5610,12 +5970,12 @@
       <c r="D2" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -5623,10 +5983,10 @@
       <c r="D3" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -5635,18 +5995,18 @@
       <c r="D4" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -5655,10 +6015,10 @@
       <c r="D6" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -5667,18 +6027,18 @@
       <c r="D7" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5699,9 +6059,15 @@
         <v>234</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
@@ -5711,9 +6077,15 @@
         <v>245</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
@@ -5723,9 +6095,15 @@
         <v>247</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5736,9 +6114,15 @@
         <v>235</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
@@ -5749,7 +6133,9 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5797,7 +6183,7 @@
       <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="26" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5805,7 +6191,7 @@
       <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="26" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5813,7 +6199,7 @@
       <c r="C22" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="26" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5850,7 +6236,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B19" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5860,43 +6246,44 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="64" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="5" max="5" width="7.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="39.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="24.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5904,12 +6291,12 @@
       <c r="D2" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -5917,10 +6304,10 @@
       <c r="D3" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -5929,18 +6316,18 @@
       <c r="D4" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -5949,10 +6336,10 @@
       <c r="D6" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -5961,18 +6348,18 @@
       <c r="D7" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6017,9 +6404,15 @@
         <v>252</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6119,7 +6512,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B15" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6129,43 +6522,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="92.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="92.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="51.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="26.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -6173,12 +6567,12 @@
       <c r="D2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -6186,10 +6580,10 @@
       <c r="D3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -6198,18 +6592,18 @@
       <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -6218,10 +6612,10 @@
       <c r="D6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -6230,18 +6624,18 @@
       <c r="D7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6264,7 +6658,6 @@
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
@@ -6286,7 +6679,6 @@
         <v>33</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="J12" s="6"/>
@@ -6299,7 +6691,7 @@
         <v>34</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
@@ -6324,7 +6716,6 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6347,9 +6738,15 @@
         <v>38</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="8"/>
@@ -6413,8 +6810,8 @@
     <mergeCell ref="G1:G8"/>
     <mergeCell ref="H1:H8"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B22 B19">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B22 B19" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6424,43 +6821,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="71" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="30.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -6468,12 +6865,12 @@
       <c r="D2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -6481,10 +6878,10 @@
       <c r="D3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -6493,18 +6890,18 @@
       <c r="D4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -6513,10 +6910,10 @@
       <c r="D6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -6525,18 +6922,18 @@
       <c r="D7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6606,16 +7003,19 @@
         <v>65</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="21"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="21"/>
@@ -6710,7 +7110,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B19" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6720,43 +7120,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="67.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="34.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="39" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="33.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -6764,12 +7165,12 @@
       <c r="D2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -6777,10 +7178,10 @@
       <c r="D3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -6789,18 +7190,18 @@
       <c r="D4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -6809,10 +7210,10 @@
       <c r="D6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -6821,18 +7222,18 @@
       <c r="D7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6853,9 +7254,15 @@
         <v>79</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
@@ -6938,9 +7345,15 @@
         <v>86</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
@@ -6948,9 +7361,15 @@
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7029,8 +7448,8 @@
     <mergeCell ref="G1:G8"/>
     <mergeCell ref="H1:H8"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B19:B20">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B19:B20" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7040,43 +7459,43 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="85.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="85.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="177" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -7084,12 +7503,12 @@
       <c r="D2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -7097,10 +7516,10 @@
       <c r="D3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -7109,18 +7528,18 @@
       <c r="D4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -7129,10 +7548,10 @@
       <c r="D6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -7141,18 +7560,18 @@
       <c r="D7" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7173,9 +7592,15 @@
         <v>79</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
@@ -7258,16 +7683,28 @@
         <v>86</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="21"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7348,8 +7785,8 @@
     <mergeCell ref="G1:G8"/>
     <mergeCell ref="H1:H8"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B19">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7359,43 +7796,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="81.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -7403,12 +7840,12 @@
       <c r="D2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -7416,10 +7853,10 @@
       <c r="D3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -7428,18 +7865,18 @@
       <c r="D4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -7448,10 +7885,10 @@
       <c r="D6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -7460,18 +7897,18 @@
       <c r="D7" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7492,9 +7929,15 @@
         <v>79</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
@@ -7577,9 +8020,15 @@
         <v>86</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
@@ -7587,9 +8036,15 @@
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7668,7 +8123,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B19" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7678,43 +8133,43 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="67.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -7722,12 +8177,12 @@
       <c r="D2" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -7735,10 +8190,10 @@
       <c r="D3" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -7747,18 +8202,18 @@
       <c r="D4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -7767,10 +8222,10 @@
       <c r="D6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -7779,18 +8234,18 @@
       <c r="D7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7811,9 +8266,15 @@
         <v>79</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
@@ -7898,9 +8359,15 @@
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="21"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7957,7 +8424,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B20" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7967,43 +8434,43 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="43.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="53.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="43.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="25.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" style="1"/>
+    <col min="10" max="10" width="53.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8011,12 +8478,12 @@
       <c r="D2" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
@@ -8024,10 +8491,10 @@
       <c r="D3" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -8036,18 +8503,18 @@
       <c r="D4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -8056,10 +8523,10 @@
       <c r="D6" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -8068,18 +8535,18 @@
       <c r="D7" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8100,9 +8567,15 @@
         <v>120</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
@@ -8208,7 +8681,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B14 B19" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Detalhes_Use_Cases.xlsx
+++ b/Detalhes_Use_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturleite/dev/DSS/DSS_TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D001D6-47F8-7D49-822E-5E06EBC60AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C768C06-4657-1241-8778-7D456296CA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12920" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="500" windowWidth="25600" windowHeight="12920" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="329">
   <si>
     <t>1. Dividir os fluxos 
     em sequências de transacções</t>
@@ -1669,9 +1669,6 @@
     <t>Procura de Rankings Globais</t>
   </si>
   <si>
-    <t>SubRanking</t>
-  </si>
-  <si>
     <t>SubLobbies</t>
   </si>
   <si>
@@ -1681,9 +1678,6 @@
     <t>Atualizar Ranking Global</t>
   </si>
   <si>
-    <t>SubRankingGlobal</t>
-  </si>
-  <si>
     <t>terminaCampeonato()</t>
   </si>
   <si>
@@ -1786,15 +1780,6 @@
     <t>Registrar configuração de veículo de jogador sem alteração de afinação</t>
   </si>
   <si>
-    <t>registaConfiguração(modoMotor: ModoMotor, modoPneu: Pneu)</t>
-  </si>
-  <si>
-    <t>Registrar configuração de veículo de jogador com alteração de afinação</t>
-  </si>
-  <si>
-    <t>registaConfiguração(modoMotor: ModoMotor, modoPneu: Pneu, afinação: float)</t>
-  </si>
-  <si>
     <t>Procura de Tipos de Conta</t>
   </si>
   <si>
@@ -1846,21 +1831,12 @@
     <t>SubCorridas</t>
   </si>
   <si>
-    <t>Adicionar Configuração Jogador para Corrida</t>
-  </si>
-  <si>
-    <t>addConfiguração(username: String, conf: Configuração)</t>
-  </si>
-  <si>
     <t>Começar Corrida</t>
   </si>
   <si>
     <t>startRace(circuito: Circuito, situacao: Meteorologia)</t>
   </si>
   <si>
-    <t>addCircuito(codCircuito: String, distancia: float, secções: List&lt;Secção, voltas: int): boolean</t>
-  </si>
-  <si>
     <t>getRankingGlobal(): Tabela</t>
   </si>
   <si>
@@ -1868,6 +1844,18 @@
   </si>
   <si>
     <t>addParticipacao(username: String, campeonato: String, tabelaClassificativa: Tabela)</t>
+  </si>
+  <si>
+    <t>alteraAfinacao(codJogador: String, afinação: float): bool</t>
+  </si>
+  <si>
+    <t>registaConfiguração(codJogador: String, modoMotor: ModoMotor, modoPneu: Pneu)</t>
+  </si>
+  <si>
+    <t>Alterar afinacao de carro do jogador</t>
+  </si>
+  <si>
+    <t>addCircuito(codCircuito: String, distancia: float, secções: List&lt;Secção&gt;, voltas: int): boolean</t>
   </si>
 </sst>
 </file>
@@ -2559,7 +2547,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2689,10 +2677,10 @@
         <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2812,7 +2800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2953,13 +2941,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3095,7 +3083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -3224,13 +3212,13 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3348,7 +3336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3489,13 +3477,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,10 +3727,10 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>256</v>
@@ -3757,13 +3745,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4010,10 +3998,10 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>262</v>
@@ -4040,13 +4028,13 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -4071,13 +4059,13 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4177,7 +4165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -4308,13 +4296,13 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4438,8 +4426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4581,13 +4569,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4610,15 +4598,9 @@
         <v>185</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>324</v>
-      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
@@ -4640,13 +4622,13 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4737,7 +4719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -4879,10 +4861,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>262</v>
@@ -4897,10 +4879,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>262</v>
@@ -4952,13 +4934,13 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4970,13 +4952,13 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5057,7 +5039,7 @@
     <mergeCell ref="G1:G8"/>
     <mergeCell ref="H1:H8"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B20" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"FLUXO DE EXCEÇÃO, FLUXO ALTERNATIVO"</formula1>
     </dataValidation>
@@ -5071,7 +5053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -5212,13 +5194,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5279,13 +5261,13 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5378,8 +5360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5534,10 +5516,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>257</v>
@@ -5565,10 +5547,10 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>256</v>
@@ -5671,7 +5653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -5814,13 +5796,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5929,7 +5911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -6063,10 +6045,10 @@
         <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6078,13 +6060,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6096,13 +6078,13 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -6115,13 +6097,13 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6134,7 +6116,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -6249,7 +6231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -6405,13 +6387,13 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -6739,10 +6721,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>257</v>
@@ -6824,7 +6806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -7011,7 +6993,7 @@
         <v>259</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>258</v>
@@ -7123,8 +7105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="D6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7346,10 +7328,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -7362,10 +7344,10 @@
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -7462,8 +7444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H18"/>
+    <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7684,10 +7666,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -7697,10 +7679,10 @@
       <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -7930,7 +7912,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>261</v>
@@ -8021,10 +8003,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -8037,10 +8019,10 @@
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -8267,7 +8249,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>261</v>
@@ -8360,10 +8342,10 @@
       <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>

--- a/Detalhes_Use_Cases.xlsx
+++ b/Detalhes_Use_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturleite/dev/DSS/DSS_TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C768C06-4657-1241-8778-7D456296CA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687A72EA-0D3C-5E4B-8CCC-CDA121CAC655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="500" windowWidth="25600" windowHeight="12920" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="334">
   <si>
     <t>1. Dividir os fluxos 
     em sequências de transacções</t>
@@ -1750,9 +1750,6 @@
     <t>getPilotos(): List&lt;Piloto&gt;</t>
   </si>
   <si>
-    <t>SubPiloto</t>
-  </si>
-  <si>
     <t>Registo de inscrição no lobby</t>
   </si>
   <si>
@@ -1819,15 +1816,6 @@
     <t>Apresentação de tabela classificativa</t>
   </si>
   <si>
-    <t>SubLobby</t>
-  </si>
-  <si>
-    <t>Calcular próximo circuito para Corrida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getProximoCircuito(codCampeonato: String, int indiceCorrida): Circuito </t>
-  </si>
-  <si>
     <t>SubCorridas</t>
   </si>
   <si>
@@ -1855,7 +1843,34 @@
     <t>Alterar afinacao de carro do jogador</t>
   </si>
   <si>
-    <t>addCircuito(codCircuito: String, distancia: float, secções: List&lt;Secção&gt;, voltas: int): boolean</t>
+    <t>procura de Campeonato</t>
+  </si>
+  <si>
+    <t>getCampeonato(codCampeonato: String): Campeonato</t>
+  </si>
+  <si>
+    <t>Procura de Carro</t>
+  </si>
+  <si>
+    <t>Procura de Piloto</t>
+  </si>
+  <si>
+    <t>getPiloto(nomePiloto): Piloto</t>
+  </si>
+  <si>
+    <t>getCarro(modeloCarro: String): Carro</t>
+  </si>
+  <si>
+    <t>SubCampeonato</t>
+  </si>
+  <si>
+    <t>Procura de Circuito</t>
+  </si>
+  <si>
+    <t>getCircuito(circuito: String): Circuito</t>
+  </si>
+  <si>
+    <t>addCircuito(codCircuito: String, distancia: float, retas: List&lt;GDU&gt;, chicanes: List&lt;GDU&gt;, curvas: List&lt;GDU&gt;, voltas: int): boolean</t>
   </si>
 </sst>
 </file>
@@ -2677,7 +2692,7 @@
         <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>272</v>
@@ -3597,7 +3612,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3762,9 +3777,15 @@
         <v>158</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3868,7 +3889,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4015,9 +4036,15 @@
         <v>160</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
@@ -4034,7 +4061,7 @@
         <v>292</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -4046,9 +4073,15 @@
         <v>162</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
@@ -4059,13 +4092,13 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4296,13 +4329,13 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="H10" s="7" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4427,7 +4460,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:H13"/>
+      <selection activeCell="F11" sqref="F11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4568,15 +4601,9 @@
         <v>181</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>319</v>
-      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
@@ -4622,13 +4649,13 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4861,10 +4888,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>262</v>
@@ -4879,10 +4906,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>262</v>
@@ -4934,13 +4961,13 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4952,13 +4979,13 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5194,10 +5221,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>272</v>
@@ -5261,10 +5288,10 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>272</v>
@@ -5360,8 +5387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5534,9 +5561,15 @@
         <v>51</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
@@ -5550,7 +5583,7 @@
         <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>256</v>
@@ -5653,7 +5686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -5796,13 +5829,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>267</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5912,7 +5945,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6048,7 +6081,7 @@
         <v>269</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6066,7 +6099,7 @@
         <v>267</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6081,7 +6114,7 @@
         <v>268</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>272</v>
@@ -6100,7 +6133,7 @@
         <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>272</v>
@@ -6231,7 +6264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -6507,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6721,10 +6754,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>257</v>
@@ -6993,7 +7026,7 @@
         <v>259</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>258</v>
@@ -7105,7 +7138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -7328,10 +7361,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -7344,10 +7377,10 @@
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -7666,10 +7699,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -7679,10 +7712,10 @@
       <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -7912,7 +7945,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>261</v>
@@ -8003,10 +8036,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -8019,10 +8052,10 @@
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -8249,7 +8282,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>261</v>
@@ -8342,10 +8375,10 @@
       <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>

--- a/Detalhes_Use_Cases.xlsx
+++ b/Detalhes_Use_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturleite/dev/DSS/DSS_TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687A72EA-0D3C-5E4B-8CCC-CDA121CAC655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC70675-82B4-2E42-9682-0349B6890674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12920" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="332">
   <si>
     <t>1. Dividir os fluxos 
     em sequências de transacções</t>
@@ -1675,18 +1675,12 @@
     <t>getTabelaClassificativa(): Tabela</t>
   </si>
   <si>
-    <t>Atualizar Ranking Global</t>
-  </si>
-  <si>
     <t>terminaCampeonato()</t>
   </si>
   <si>
     <t>Procura de Tabela classificativa de campeonato</t>
   </si>
   <si>
-    <t>Atualizar Histórico dos Jogadores</t>
-  </si>
-  <si>
     <t>SubUsers</t>
   </si>
   <si>
@@ -1723,9 +1717,6 @@
     <t>Procura de histórico de participações</t>
   </si>
   <si>
-    <t>getHistoricoParticipacoes(username: String): List&lt;Participação&gt;</t>
-  </si>
-  <si>
     <t>Procura de Campeonatos disponíveis</t>
   </si>
   <si>
@@ -1828,12 +1819,6 @@
     <t>getRankingGlobal(): Tabela</t>
   </si>
   <si>
-    <t>atualizaRankingGlobal(username: String, pontuação: int)</t>
-  </si>
-  <si>
-    <t>addParticipacao(username: String, campeonato: String, tabelaClassificativa: Tabela)</t>
-  </si>
-  <si>
     <t>alteraAfinacao(codJogador: String, afinação: float): bool</t>
   </si>
   <si>
@@ -1871,6 +1856,15 @@
   </si>
   <si>
     <t>addCircuito(codCircuito: String, distancia: float, retas: List&lt;GDU&gt;, chicanes: List&lt;GDU&gt;, curvas: List&lt;GDU&gt;, voltas: int): boolean</t>
+  </si>
+  <si>
+    <t>getHistoricoParticipacoes(username: String): List&lt;Lobby&gt;</t>
+  </si>
+  <si>
+    <t>Atualizar pontuacao global jogador</t>
+  </si>
+  <si>
+    <t>atualizaPontuacao(userName: String, pontuacao: int)</t>
   </si>
 </sst>
 </file>
@@ -2692,10 +2686,10 @@
         <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,13 +2950,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3227,13 +3221,13 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3351,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3492,13 +3486,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3742,10 +3736,10 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>256</v>
@@ -3760,10 +3754,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>266</v>
@@ -3778,10 +3772,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>256</v>
@@ -4019,10 +4013,10 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>262</v>
@@ -4037,10 +4031,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>262</v>
@@ -4055,10 +4049,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>258</v>
@@ -4074,10 +4068,10 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>258</v>
@@ -4092,10 +4086,10 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>256</v>
@@ -4329,13 +4323,13 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4649,13 +4643,13 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4888,10 +4882,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>262</v>
@@ -4906,10 +4900,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>262</v>
@@ -4961,13 +4955,13 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4979,13 +4973,13 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5221,13 +5215,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5288,13 +5282,13 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5543,10 +5537,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>257</v>
@@ -5562,10 +5556,10 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>257</v>
@@ -5580,10 +5574,10 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>256</v>
@@ -5829,13 +5823,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>267</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5944,8 +5938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6078,10 +6072,10 @@
         <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6093,13 +6087,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>267</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6111,13 +6105,13 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -6129,15 +6123,9 @@
         <v>235</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>272</v>
-      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
@@ -6149,7 +6137,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -6420,13 +6408,13 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -6540,7 +6528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -6754,10 +6742,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>257</v>
@@ -7026,7 +7014,7 @@
         <v>259</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>258</v>
@@ -7361,10 +7349,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -7377,10 +7365,10 @@
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -7699,10 +7687,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -7712,10 +7700,10 @@
       <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -7945,7 +7933,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>261</v>
@@ -8036,10 +8024,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -8052,10 +8040,10 @@
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -8282,7 +8270,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>261</v>
@@ -8375,10 +8363,10 @@
       <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>

--- a/Detalhes_Use_Cases.xlsx
+++ b/Detalhes_Use_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturleite/dev/DSS/DSS_TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC70675-82B4-2E42-9682-0349B6890674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE24FF-A11A-C24C-9953-250C312AB616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12920" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12920" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId1"/>
@@ -1687,9 +1687,6 @@
     <t>Autenticar utilizador</t>
   </si>
   <si>
-    <t>autenticaUser(username: String, password: String): boolean</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1865,6 +1862,9 @@
   </si>
   <si>
     <t>atualizaPontuacao(userName: String, pontuacao: int)</t>
+  </si>
+  <si>
+    <t>autenticaUser(username: String, password: String): User</t>
   </si>
 </sst>
 </file>
@@ -2686,7 +2686,7 @@
         <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>270</v>
@@ -2950,10 +2950,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>270</v>
@@ -3221,10 +3221,10 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>270</v>
@@ -3486,10 +3486,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>270</v>
@@ -3736,10 +3736,10 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>256</v>
@@ -3754,10 +3754,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>266</v>
@@ -3772,10 +3772,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>320</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>256</v>
@@ -4013,10 +4013,10 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>262</v>
@@ -4031,10 +4031,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>262</v>
@@ -4049,10 +4049,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>258</v>
@@ -4068,10 +4068,10 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>258</v>
@@ -4086,10 +4086,10 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>256</v>
@@ -4323,13 +4323,13 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="H10" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4643,13 +4643,13 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4882,10 +4882,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>262</v>
@@ -4900,10 +4900,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>262</v>
@@ -4955,13 +4955,13 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4973,13 +4973,13 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5215,10 +5215,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>270</v>
@@ -5282,10 +5282,10 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>270</v>
@@ -5537,10 +5537,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>257</v>
@@ -5556,10 +5556,10 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>257</v>
@@ -5574,10 +5574,10 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>256</v>
@@ -5823,13 +5823,13 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>267</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5938,7 +5938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="D2" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -6075,7 +6075,7 @@
         <v>268</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6093,7 +6093,7 @@
         <v>267</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6105,10 +6105,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>270</v>
@@ -6137,7 +6137,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -6252,8 +6252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6411,7 +6411,7 @@
         <v>271</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>270</v>
@@ -6742,10 +6742,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>257</v>
@@ -7014,7 +7014,7 @@
         <v>259</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>258</v>
@@ -7349,10 +7349,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -7365,10 +7365,10 @@
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -7687,10 +7687,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -7700,10 +7700,10 @@
       <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>261</v>
@@ -8024,10 +8024,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>262</v>
@@ -8040,10 +8040,10 @@
       <c r="D18" s="14"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>261</v>
@@ -8363,10 +8363,10 @@
       <c r="D18" s="21"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>262</v>

--- a/Detalhes_Use_Cases.xlsx
+++ b/Detalhes_Use_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturleite/dev/DSS/DSS_TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE24FF-A11A-C24C-9953-250C312AB616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DCC806-43F0-EA4E-B39E-5745934FC78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12920" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="12920" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId1"/>
@@ -1810,9 +1810,6 @@
     <t>Começar Corrida</t>
   </si>
   <si>
-    <t>startRace(circuito: Circuito, situacao: Meteorologia)</t>
-  </si>
-  <si>
     <t>getRankingGlobal(): Tabela</t>
   </si>
   <si>
@@ -1865,6 +1862,9 @@
   </si>
   <si>
     <t>autenticaUser(username: String, password: String): User</t>
+  </si>
+  <si>
+    <t>startNextRace(): String</t>
   </si>
 </sst>
 </file>
@@ -2686,7 +2686,7 @@
         <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>270</v>
@@ -3489,7 +3489,7 @@
         <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>270</v>
@@ -3772,10 +3772,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>256</v>
@@ -3882,7 +3882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4031,10 +4031,10 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>262</v>
@@ -4068,10 +4068,10 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>258</v>
@@ -4329,7 +4329,7 @@
         <v>292</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4453,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
+    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4646,7 +4646,7 @@
         <v>312</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>311</v>
@@ -4958,7 +4958,7 @@
         <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>311</v>
@@ -4973,10 +4973,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>311</v>
@@ -5556,10 +5556,10 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>257</v>
@@ -5829,7 +5829,7 @@
         <v>267</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5938,7 +5938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -6075,7 +6075,7 @@
         <v>268</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6093,7 +6093,7 @@
         <v>267</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6105,10 +6105,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>270</v>
@@ -6252,7 +6252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F8"/>
     </sheetView>
   </sheetViews>
@@ -6411,7 +6411,7 @@
         <v>271</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>270</v>
@@ -6745,7 +6745,7 @@
         <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>257</v>
